--- a/analyses/trees/RNA3/RNA3_SeqIDs.xlsx
+++ b/analyses/trees/RNA3/RNA3_SeqIDs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lexikeene/Documents/Research/diverse_collections/analyses/trees/RNA3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lexikeene/Documents/Research/diverse_collections/github/analyses/trees/RNA3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B437B0-D7DE-A745-BA00-EF20C655F092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854DB035-F1CD-D44C-BAA3-3366F81C7E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40380" yWindow="500" windowWidth="28260" windowHeight="16880" xr2:uid="{6DFF8309-0216-3644-9CE5-EF91237D735A}"/>
   </bookViews>
@@ -926,49 +926,49 @@
     <t>simulans</t>
   </si>
   <si>
-    <t>SRX10234776</t>
-  </si>
-  <si>
-    <t>SRX10234777</t>
-  </si>
-  <si>
-    <t>SRX10234778</t>
-  </si>
-  <si>
-    <t>SRX10234779</t>
-  </si>
-  <si>
-    <t>SRX10234780</t>
-  </si>
-  <si>
-    <t>SRX10234781</t>
-  </si>
-  <si>
-    <t>SRX10234782</t>
-  </si>
-  <si>
-    <t>SRX10234784</t>
-  </si>
-  <si>
-    <t>SRX10234785</t>
-  </si>
-  <si>
-    <t>SRX10234786</t>
-  </si>
-  <si>
-    <t>SRX10234787</t>
-  </si>
-  <si>
-    <t>SRX10234788</t>
-  </si>
-  <si>
-    <t>SRX10234789</t>
-  </si>
-  <si>
-    <t>SRX10234790</t>
-  </si>
-  <si>
     <t>undetermined</t>
+  </si>
+  <si>
+    <t>PV185867</t>
+  </si>
+  <si>
+    <t>PV185869</t>
+  </si>
+  <si>
+    <t>PV185871</t>
+  </si>
+  <si>
+    <t>PV185873</t>
+  </si>
+  <si>
+    <t>PV185875</t>
+  </si>
+  <si>
+    <t>PV185877</t>
+  </si>
+  <si>
+    <t>PV185879</t>
+  </si>
+  <si>
+    <t>PV185882</t>
+  </si>
+  <si>
+    <t>PV185884</t>
+  </si>
+  <si>
+    <t>PV185886</t>
+  </si>
+  <si>
+    <t>PV185888</t>
+  </si>
+  <si>
+    <t>PV185890</t>
+  </si>
+  <si>
+    <t>PV185892</t>
+  </si>
+  <si>
+    <t>PV185894</t>
   </si>
 </sst>
 </file>
@@ -1342,13 +1342,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFA89E3-95EE-5B4C-BA29-97DEEB829153}">
   <dimension ref="A1:E169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="J117" sqref="J117"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A171" sqref="A171:XFD184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="61.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -3269,7 +3270,7 @@
         <v>2023</v>
       </c>
       <c r="E113" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -3862,10 +3863,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
+        <v>297</v>
+      </c>
+      <c r="B156" t="s">
         <v>266</v>
-      </c>
-      <c r="B156" t="s">
-        <v>296</v>
       </c>
       <c r="C156" t="s">
         <v>290</v>
@@ -3879,10 +3880,10 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
+        <v>298</v>
+      </c>
+      <c r="B157" t="s">
         <v>267</v>
-      </c>
-      <c r="B157" t="s">
-        <v>297</v>
       </c>
       <c r="C157" t="s">
         <v>290</v>
@@ -3896,10 +3897,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>299</v>
+      </c>
+      <c r="B158" t="s">
         <v>268</v>
-      </c>
-      <c r="B158" t="s">
-        <v>298</v>
       </c>
       <c r="C158" t="s">
         <v>290</v>
@@ -3913,10 +3914,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
+        <v>300</v>
+      </c>
+      <c r="B159" t="s">
         <v>269</v>
-      </c>
-      <c r="B159" t="s">
-        <v>299</v>
       </c>
       <c r="C159" t="s">
         <v>290</v>
@@ -3930,10 +3931,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>301</v>
+      </c>
+      <c r="B160" t="s">
         <v>270</v>
-      </c>
-      <c r="B160" t="s">
-        <v>300</v>
       </c>
       <c r="C160" t="s">
         <v>290</v>
@@ -3947,10 +3948,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>302</v>
+      </c>
+      <c r="B161" t="s">
         <v>271</v>
-      </c>
-      <c r="B161" t="s">
-        <v>301</v>
       </c>
       <c r="C161" t="s">
         <v>290</v>
@@ -3964,10 +3965,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>303</v>
+      </c>
+      <c r="B162" t="s">
         <v>272</v>
-      </c>
-      <c r="B162" t="s">
-        <v>302</v>
       </c>
       <c r="C162" t="s">
         <v>290</v>
@@ -3981,10 +3982,10 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>304</v>
+      </c>
+      <c r="B163" t="s">
         <v>273</v>
-      </c>
-      <c r="B163" t="s">
-        <v>303</v>
       </c>
       <c r="C163" t="s">
         <v>290</v>
@@ -3998,10 +3999,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>305</v>
+      </c>
+      <c r="B164" t="s">
         <v>274</v>
-      </c>
-      <c r="B164" t="s">
-        <v>304</v>
       </c>
       <c r="C164" t="s">
         <v>290</v>
@@ -4015,10 +4016,10 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>306</v>
+      </c>
+      <c r="B165" t="s">
         <v>275</v>
-      </c>
-      <c r="B165" t="s">
-        <v>305</v>
       </c>
       <c r="C165" t="s">
         <v>290</v>
@@ -4032,10 +4033,10 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
+        <v>307</v>
+      </c>
+      <c r="B166" t="s">
         <v>276</v>
-      </c>
-      <c r="B166" t="s">
-        <v>306</v>
       </c>
       <c r="C166" t="s">
         <v>290</v>
@@ -4049,10 +4050,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>308</v>
+      </c>
+      <c r="B167" t="s">
         <v>277</v>
-      </c>
-      <c r="B167" t="s">
-        <v>307</v>
       </c>
       <c r="C167" t="s">
         <v>290</v>
@@ -4066,10 +4067,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>309</v>
+      </c>
+      <c r="B168" t="s">
         <v>278</v>
-      </c>
-      <c r="B168" t="s">
-        <v>308</v>
       </c>
       <c r="C168" t="s">
         <v>290</v>
@@ -4083,10 +4084,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>310</v>
+      </c>
+      <c r="B169" t="s">
         <v>279</v>
-      </c>
-      <c r="B169" t="s">
-        <v>309</v>
       </c>
       <c r="C169" t="s">
         <v>290</v>
